--- a/biology/Médecine/Révolte_du_vaccin/Révolte_du_vaccin.xlsx
+++ b/biology/Médecine/Révolte_du_vaccin/Révolte_du_vaccin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_du_vaccin</t>
+          <t>Révolte_du_vaccin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La révolte du vaccin (Revolta da Vacina en portugais) est une période de désordre civil qui a eu lieu à Rio de Janeiro (Brésil) du 10 au 16 novembre 1904. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_du_vaccin</t>
+          <t>Révolte_du_vaccin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XXe siècle, bien que remarquable pour ses magnifiques palais et manoirs, la ville de Rio de Janeiro (alors capitale du Brésil) souffre également d'infrastructures insuffisantes, notamment en ce qui concerne l'adduction d'eau et les égouts, d'un ramassage irrégulier des ordures et d'appartements très densément peuplés.
 Dans ce contexte, de nombreuses maladies prolifèrent : tuberculose, rougeole, typhus et lèpre. De temps en temps, surviennent des épidémies de fièvre jaune, de variole ou de peste. Entre 1897 et 1906, 4 000 immigrants européens décèdent de la fièvre jaune à Rio de Janeiro. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_du_vaccin</t>
+          <t>Révolte_du_vaccin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>La révolte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin d'éradiquer la variole, Cruz convainc le Congrès d'adopter la Loi sur la vaccination obligatoire (31 octobre 1904) qui autorise les employés de la Brigade Sanitaire accompagnés par la police à pénétrer dans les domiciles pour vacciner de force et donne aux équipes de vaccination le droit de signaler les emplacements qu'ils considèrent comme étant dangereuse hygiéniquement. Les habitations signalées pouvaient ensuite être détruites.
 Cela mécontenta la population. La ville semblait en ruines, de nombreuses personnes avaient perdu leur logement pendant que les autres voyaient leur domicile envahi par les travailleurs sociaux et la police. La presse émit des critiques contre le gouvernement et des articles évoquèrent de possibles risques liés au vaccin. De plus, la rumeur courut que le vaccin devait être appliqué sur les “parties intimes” du corps (ou du moins, que les femmes devaient se déshabiller pour être vaccinées), aggravant encore la colère de la population. Le résultat fut une révolte populaire.
